--- a/TableData.xlsx
+++ b/TableData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\PycharmProjects\TotalTrans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63ACBC39-0856-49C2-9C08-0E769C80DC25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0EE9E4-A64B-4C1F-BCC5-B61EBDFFCEB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{F42925FF-B9B5-4678-8952-9C78F3D7E804}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F42925FF-B9B5-4678-8952-9C78F3D7E804}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2171,8 +2165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D40BD6-C5BC-469A-95C5-3EA2EBB1A3D7}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2252,8 +2246,8 @@
         <v>1</v>
       </c>
       <c r="K2" t="str">
-        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('",A2,"','",B2,"','",C2,"','",D2,"','",E2,"','",F2,"','",G2,"','",H2,"','",I2,"');")</f>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('sk','Slovak','sk','スロバキア語','Slovak','Eslovaco','斯洛伐克文','斯洛伐克文','슬로바키아어');</v>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A2,"','",B2,"','",C2,"','",D2,"','",E2,"','",F2,"','",G2,"','",H2,"','",I2,"','",J2,"');")</f>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('sk','Slovak','sk','スロバキア語','Slovak','Eslovaco','斯洛伐克文','斯洛伐克文','슬로바키아어','1');</v>
       </c>
       <c r="L2" s="3"/>
     </row>
@@ -2289,8 +2283,8 @@
         <v>1</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K39" si="0">CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"','",F3,"','",G3,"','",H3,"','",I3,"');")</f>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('uk','Ukrainian','ua','ウクライナ語','Ukrainian','Ucranio','烏克蘭','乌克兰','우크라이나어');</v>
+        <f t="shared" ref="K3:K39" si="0">CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"','",F3,"','",G3,"','",H3,"','",I3,"','",J3,"');")</f>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('uk','Ukrainian','ua','ウクライナ語','Ukrainian','Ucranio','烏克蘭','乌克兰','우크라이나어','1');</v>
       </c>
       <c r="L3" s="3"/>
     </row>
@@ -2327,7 +2321,7 @@
       </c>
       <c r="K4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('sr','Serbian','sr','セルビア語','Serbian','Serbio','塞爾維亞','塞尔维亚','세르비아어');</v>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('sr','Serbian','sr','セルビア語','Serbian','Serbio','塞爾維亞','塞尔维亚','세르비아어','1');</v>
       </c>
       <c r="L4" s="3"/>
     </row>
@@ -2361,7 +2355,7 @@
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('ar','Arabic','','アラビア語','Arabic','Arábica','阿拉伯','阿拉伯','아랍어');</v>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('ar','Arabic','','アラビア語','Arabic','Arábica','阿拉伯','阿拉伯','아랍어','1');</v>
       </c>
       <c r="L5" s="3"/>
     </row>
@@ -2398,7 +2392,7 @@
       </c>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('de','German','de','ドイツ語','German','Alemán','德語','德语','독일');</v>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('de','German','de','ドイツ語','German','Alemán','德語','德语','독일','1');</v>
       </c>
       <c r="L6" s="3"/>
     </row>
@@ -2435,7 +2429,7 @@
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('en','English','en','英語','English','Inglés','英語','英语','영어');</v>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('en','English','en','英語','English','Inglés','英語','英语','영어','1');</v>
       </c>
       <c r="L7" s="3"/>
     </row>
@@ -2472,7 +2466,7 @@
       </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('es','Spanish (Spain)','es','スペイン語（スペイン）','Spanish (Spain)','Español','西班牙語（西班牙）','西班牙语（西班牙）','스페인어 (스페인)');</v>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('es','Spanish (Spain)','es','スペイン語（スペイン）','Spanish (Spain)','Español','西班牙語（西班牙）','西班牙语（西班牙）','스페인어 (스페인)','1');</v>
       </c>
       <c r="L8" s="3"/>
     </row>
@@ -2509,7 +2503,7 @@
       </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('es-la','Spanish (Latin America)','es','スペイン語（ラテンアメリカ）','Spanish (Latin America)','Español (América Latina)','西班牙語（拉丁美洲）','西班牙语（拉丁美洲）','스페인어 (라틴 아메리카)');</v>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('es-la','Spanish (Latin America)','es','スペイン語（ラテンアメリカ）','Spanish (Latin America)','Español (América Latina)','西班牙語（拉丁美洲）','西班牙语（拉丁美洲）','스페인어 (라틴 아메리카)','1');</v>
       </c>
       <c r="L9" s="3"/>
     </row>
@@ -2546,7 +2540,7 @@
       </c>
       <c r="K10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('ko','Korean','kr','韓国語','Korean','Coreano','韓語','韩语','한국어');</v>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('ko','Korean','kr','韓国語','Korean','Coreano','韓語','韩语','한국어','1');</v>
       </c>
       <c r="L10" s="3"/>
     </row>
@@ -2583,7 +2577,7 @@
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('fr','French','fr','フランス語','French','Francés','法文','法文','프랑스어');</v>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('fr','French','fr','フランス語','French','Francés','法文','法文','프랑스어','1');</v>
       </c>
       <c r="L11" s="3"/>
     </row>
@@ -2620,7 +2614,7 @@
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('fr-ca','French (Canada)','fr','フランス語（カナダ）','French (Canada)','Francés (Canadá)','法語（加拿大）','法语（加拿大）','프랑스어 (캐나다)');</v>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('fr-ca','French (Canada)','fr','フランス語（カナダ）','French (Canada)','Francés (Canadá)','法語（加拿大）','法语（加拿大）','프랑스어 (캐나다)','1');</v>
       </c>
       <c r="L12" s="3"/>
     </row>
@@ -2657,7 +2651,7 @@
       </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('id','Indonesian','id','インドネシア語','Indonesian','Indonesio','印度尼西亞','印度尼西亚','인도네시아어');</v>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('id','Indonesian','id','インドネシア語','Indonesian','Indonesio','印度尼西亞','印度尼西亚','인도네시아어','1');</v>
       </c>
       <c r="L13" s="3"/>
     </row>
@@ -2694,7 +2688,7 @@
       </c>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('it','Italian','it','イタリア語','Italian','Italiano','義大利文','义大利文','이태리어');</v>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('it','Italian','it','イタリア語','Italian','Italiano','義大利文','义大利文','이태리어','1');</v>
       </c>
       <c r="L14" s="3"/>
     </row>
@@ -2731,7 +2725,7 @@
       </c>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('ja','Japanese','jp','日本語','Japanese','Japonés','日本','日本','일본어');</v>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('ja','Japanese','jp','日本語','Japanese','Japonés','日本','日本','일본어','1');</v>
       </c>
       <c r="L15" s="3"/>
     </row>
@@ -2768,7 +2762,7 @@
       </c>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('ms','Malay','my','マレー語','Malay','Malayo','馬來語','马来语','말레이어');</v>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('ms','Malay','my','マレー語','Malay','Malayo','馬來語','马来语','말레이어','1');</v>
       </c>
       <c r="L16" s="3"/>
     </row>
@@ -2805,7 +2799,7 @@
       </c>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('nl','Dutch','nl','オランダ語','Dutch','Holandés','荷蘭語','荷兰语','네덜란드');</v>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('nl','Dutch','nl','オランダ語','Dutch','Holandés','荷蘭語','荷兰语','네덜란드','1');</v>
       </c>
       <c r="L17" s="3"/>
     </row>
@@ -2842,7 +2836,7 @@
       </c>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('pt','Portuguese (Europe)','pt','ポルトガル語（ヨーロッパ）','Portuguese (Europe)','Portugués (Europa)','葡萄牙語（歐洲）','葡萄牙语（欧洲）','포르투갈어 (유럽)');</v>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('pt','Portuguese (Europe)','pt','ポルトガル語（ヨーロッパ）','Portuguese (Europe)','Portugués (Europa)','葡萄牙語（歐洲）','葡萄牙语（欧洲）','포르투갈어 (유럽)','1');</v>
       </c>
       <c r="L18" s="3"/>
     </row>
@@ -2879,7 +2873,7 @@
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('pt-br','Portuguese (Brazil)','pt','ポルトガル語（ブラジル）','Portuguese (Brazil)','Portugués (Brasil)','葡萄牙語（巴西）','葡萄牙语（巴西）','포르투갈어 (브라질)');</v>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('pt-br','Portuguese (Brazil)','pt','ポルトガル語（ブラジル）','Portuguese (Brazil)','Portugués (Brasil)','葡萄牙語（巴西）','葡萄牙语（巴西）','포르투갈어 (브라질)','1');</v>
       </c>
       <c r="L19" s="3"/>
     </row>
@@ -2916,7 +2910,7 @@
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('th','Thai','th','タイ語','Thai','Tailandés','泰國','泰国','타이어');</v>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('th','Thai','th','タイ語','Thai','Tailandés','泰國','泰国','타이어','1');</v>
       </c>
       <c r="L20" s="3"/>
     </row>
@@ -2953,7 +2947,7 @@
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('tl','Tagalog','ph','タガログ語','Tagalog','Tagalo','他加祿語','他加禄语','타갈로그어');</v>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('tl','Tagalog','ph','タガログ語','Tagalog','Tagalo','他加祿語','他加禄语','타갈로그어','1');</v>
       </c>
       <c r="L21" s="3"/>
     </row>
@@ -2990,7 +2984,7 @@
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('tr','Turkish','tr','トルコ語','Turkish','Turco','土耳其','土耳其','터키어');</v>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('tr','Turkish','tr','トルコ語','Turkish','Turco','土耳其','土耳其','터키어','1');</v>
       </c>
       <c r="L22" s="3"/>
     </row>
@@ -3027,7 +3021,7 @@
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('zh-hk','Chinese (Hong Kong)','cn','中国語（香港）','Chinese (Hong Kong)','Chino (Hong Kong)','中文（香港）','中文（香港）','중국어 (홍콩)');</v>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('zh-hk','Chinese (Hong Kong)','cn','中国語（香港）','Chinese (Hong Kong)','Chino (Hong Kong)','中文（香港）','中文（香港）','중국어 (홍콩)','1');</v>
       </c>
       <c r="L23" s="3"/>
     </row>
@@ -3064,7 +3058,7 @@
       </c>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('zh-tw','Chinese (Traditional)','cn','中国語（繁体字）','Chinese (Traditional)','Chino (tradicional)','繁體中文','繁體中文','중국어 (번체)');</v>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('zh-tw','Chinese (Traditional)','cn','中国語（繁体字）','Chinese (Traditional)','Chino (tradicional)','繁體中文','繁體中文','중국어 (번체)','1');</v>
       </c>
       <c r="L24" s="3"/>
     </row>
@@ -3101,7 +3095,7 @@
       </c>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('ru','Russian','ru','ロシア語','Russian','Ruso','俄語','俄语','러시아어');</v>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('ru','Russian','ru','ロシア語','Russian','Ruso','俄語','俄语','러시아어','1');</v>
       </c>
       <c r="L25" s="3"/>
     </row>
@@ -3138,7 +3132,7 @@
       </c>
       <c r="K26" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('sv','Swedish','se','スウェーデン語','Swedish','Sueco','瑞典','瑞典','스웨덴어');</v>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('sv','Swedish','se','スウェーデン語','Swedish','Sueco','瑞典','瑞典','스웨덴어','1');</v>
       </c>
       <c r="L26" s="3"/>
     </row>
@@ -3175,7 +3169,7 @@
       </c>
       <c r="K27" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('bg','Bulgarian','bg','ブルガリア語','Bulgarian','Búlgaro','保加利亞語','保加利亚语','불가리아어');</v>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('bg','Bulgarian','bg','ブルガリア語','Bulgarian','Búlgaro','保加利亞語','保加利亚语','불가리아어','1');</v>
       </c>
       <c r="L27" s="3"/>
     </row>
@@ -3212,7 +3206,7 @@
       </c>
       <c r="K28" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('cs','Czech','cz','チェコ語','Czech','Checo','捷克文','捷克文','체코 어');</v>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('cs','Czech','cz','チェコ語','Czech','Checo','捷克文','捷克文','체코 어','1');</v>
       </c>
       <c r="L28" s="3"/>
     </row>
@@ -3249,7 +3243,7 @@
       </c>
       <c r="K29" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('da','Danish','dk','デンマーク語','Danish','Danés','丹麥文','丹麦文','덴마크어');</v>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('da','Danish','dk','デンマーク語','Danish','Danés','丹麥文','丹麦文','덴마크어','1');</v>
       </c>
       <c r="L29" s="3"/>
     </row>
@@ -3286,7 +3280,7 @@
       </c>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('el','Greek','gr','ギリシャ語','Greek','Griego','希臘語','希腊语','그리스어');</v>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('el','Greek','gr','ギリシャ語','Greek','Griego','希臘語','希腊语','그리스어','1');</v>
       </c>
       <c r="L30" s="3"/>
     </row>
@@ -3323,7 +3317,7 @@
       </c>
       <c r="K31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('en-gb','English (British)','en','英語（イギリス）','English (British)','Inglés (británico)','英語（英國）','英语（英国）','영어 (영국)');</v>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('en-gb','English (British)','en','英語（イギリス）','English (British)','Inglés (británico)','英語（英國）','英语（英国）','영어 (영국)','1');</v>
       </c>
       <c r="L31" s="3"/>
     </row>
@@ -3360,7 +3354,7 @@
       </c>
       <c r="K32" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('fi','Finnish','fi','フィンランド語','Finnish','Finlandés','芬蘭','芬兰','핀란드어');</v>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('fi','Finnish','fi','フィンランド語','Finnish','Finlandés','芬蘭','芬兰','핀란드어','1');</v>
       </c>
       <c r="L32" s="3"/>
     </row>
@@ -3397,7 +3391,7 @@
       </c>
       <c r="K33" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('he','Hebrew','il','ヘブライ語','Hebrew','Hebreo','希伯來語','希伯来语','히브리어');</v>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('he','Hebrew','il','ヘブライ語','Hebrew','Hebreo','希伯來語','希伯来语','히브리어','1');</v>
       </c>
       <c r="L33" s="3"/>
     </row>
@@ -3434,7 +3428,7 @@
       </c>
       <c r="K34" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('hu','Hungarian','hu','ハンガリー語','Hungarian','Húngaro','匈牙利','匈牙利','헝가리어');</v>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('hu','Hungarian','hu','ハンガリー語','Hungarian','Húngaro','匈牙利','匈牙利','헝가리어','1');</v>
       </c>
       <c r="L34" s="3"/>
     </row>
@@ -3471,7 +3465,7 @@
       </c>
       <c r="K35" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('no','Norwegian','no','ノルウェー語','Norwegian','Noruego','挪威','挪威','노르웨이어');</v>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('no','Norwegian','no','ノルウェー語','Norwegian','Noruego','挪威','挪威','노르웨이어','1');</v>
       </c>
       <c r="L35" s="3"/>
     </row>
@@ -3508,7 +3502,7 @@
       </c>
       <c r="K36" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('pl','Polish','pl','ポーランド語','Polish','Polaco','拋光','抛光','폴란드어');</v>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('pl','Polish','pl','ポーランド語','Polish','Polaco','拋光','抛光','폴란드어','1');</v>
       </c>
       <c r="L36" s="3"/>
     </row>
@@ -3545,7 +3539,7 @@
       </c>
       <c r="K37" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('ro','Romanian','ro','ルーマニア語','Romanian','Rumano','羅馬尼亞語','罗马尼亚语','루마니아어');</v>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('ro','Romanian','ro','ルーマニア語','Romanian','Rumano','羅馬尼亞語','罗马尼亚语','루마니아어','1');</v>
       </c>
       <c r="L37" s="3"/>
     </row>
@@ -3582,7 +3576,7 @@
       </c>
       <c r="K38" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('vi','Vietnamese','vn','ベトナム語','Vietnamese','Vietnamita','越南文','越南文','베트남어');</v>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('vi','Vietnamese','vn','ベトナム語','Vietnamese','Vietnamita','越南文','越南文','베트남어','1');</v>
       </c>
       <c r="L38" s="3"/>
     </row>
@@ -3619,7 +3613,7 @@
       </c>
       <c r="K39" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean)Values('zh','Chinese (Simplified)','ch','中国語（簡体字）','Chinese (Simplified)','Chino (simplificado)','簡體中文','简体中文','중국어 (간체)');</v>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('zh','Chinese (Simplified)','ch','中国語（簡体字）','Chinese (Simplified)','Chino (simplificado)','簡體中文','简体中文','중국어 (간체)','1');</v>
       </c>
       <c r="L39" s="3"/>
     </row>

--- a/TableData.xlsx
+++ b/TableData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\PycharmProjects\TotalTrans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0EE9E4-A64B-4C1F-BCC5-B61EBDFFCEB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EEE3E4-5D1E-4CAE-A753-AA0087092029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F42925FF-B9B5-4678-8952-9C78F3D7E804}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F42925FF-B9B5-4678-8952-9C78F3D7E804}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="297">
   <si>
     <t>sk</t>
   </si>
@@ -247,9 +248,6 @@
   </si>
   <si>
     <t>Vietnamese</t>
-  </si>
-  <si>
-    <t>zh</t>
   </si>
   <si>
     <t>Chinese (Simplified)</t>
@@ -1750,6 +1748,72 @@
   </si>
   <si>
     <t>validFlag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本語</t>
+    <rPh sb="0" eb="3">
+      <t>ニホンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Español</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>한국</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>简体中文</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>listname</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Japanese</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spanish</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ChineseTra</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ChineseSim</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Korean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ja</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kr</t>
+  </si>
+  <si>
+    <t>zh-cn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zh-tw</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1757,7 +1821,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1804,6 +1868,20 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1833,7 +1911,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1847,6 +1925,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2165,8 +2249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D40BD6-C5BC-469A-95C5-3EA2EBB1A3D7}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2184,34 +2268,34 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="J1" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
@@ -2225,22 +2309,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
@@ -2259,31 +2343,31 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J3" s="3">
         <v>1</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K39" si="0">CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"','",F3,"','",G3,"','",H3,"','",I3,"','",J3,"');")</f>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"','",F3,"','",G3,"','",H3,"','",I3,"','",J3,"');")</f>
         <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('uk','Ukrainian','ua','ウクライナ語','Ukrainian','Ucranio','烏克蘭','乌克兰','우크라이나어','1');</v>
       </c>
       <c r="L3" s="3"/>
@@ -2299,28 +2383,28 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J4" s="3">
         <v>1</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A4,"','",B4,"','",C4,"','",D4,"','",E4,"','",F4,"','",G4,"','",H4,"','",I4,"','",J4,"');")</f>
         <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('sr','Serbian','sr','セルビア語','Serbian','Serbio','塞爾維亞','塞尔维亚','세르비아어','1');</v>
       </c>
       <c r="L4" s="3"/>
@@ -2333,28 +2417,28 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J5" s="3">
         <v>1</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A5,"','",B5,"','",C5,"','",D5,"','",E5,"','",F5,"','",G5,"','",H5,"','",I5,"','",J5,"');")</f>
         <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('ar','Arabic','','アラビア語','Arabic','Arábica','阿拉伯','阿拉伯','아랍어','1');</v>
       </c>
       <c r="L5" s="3"/>
@@ -2370,28 +2454,28 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J6" s="3">
         <v>1</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A6,"','",B6,"','",C6,"','",D6,"','",E6,"','",F6,"','",G6,"','",H6,"','",I6,"','",J6,"');")</f>
         <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('de','German','de','ドイツ語','German','Alemán','德語','德语','독일','1');</v>
       </c>
       <c r="L6" s="3"/>
@@ -2407,28 +2491,28 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J7" s="3">
         <v>1</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A7,"','",B7,"','",C7,"','",D7,"','",E7,"','",F7,"','",G7,"','",H7,"','",I7,"','",J7,"');")</f>
         <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('en','English','en','英語','English','Inglés','英語','英语','영어','1');</v>
       </c>
       <c r="L7" s="3"/>
@@ -2444,28 +2528,28 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J8" s="3">
         <v>1</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A8,"','",B8,"','",C8,"','",D8,"','",E8,"','",F8,"','",G8,"','",H8,"','",I8,"','",J8,"');")</f>
         <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('es','Spanish (Spain)','es','スペイン語（スペイン）','Spanish (Spain)','Español','西班牙語（西班牙）','西班牙语（西班牙）','스페인어 (스페인)','1');</v>
       </c>
       <c r="L8" s="3"/>
@@ -2478,31 +2562,31 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J9" s="3">
         <v>1</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A9,"','",B9,"','",C9,"','",D9,"','",E9,"','",F9,"','",G9,"','",H9,"','",I9,"','",J9,"');")</f>
         <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('es-la','Spanish (Latin America)','es','スペイン語（ラテンアメリカ）','Spanish (Latin America)','Español (América Latina)','西班牙語（拉丁美洲）','西班牙语（拉丁美洲）','스페인어 (라틴 아메리카)','1');</v>
       </c>
       <c r="L9" s="3"/>
@@ -2515,31 +2599,31 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J10" s="3">
         <v>1</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A10,"','",B10,"','",C10,"','",D10,"','",E10,"','",F10,"','",G10,"','",H10,"','",I10,"','",J10,"');")</f>
         <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('ko','Korean','kr','韓国語','Korean','Coreano','韓語','韩语','한국어','1');</v>
       </c>
       <c r="L10" s="3"/>
@@ -2555,28 +2639,28 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J11" s="3">
         <v>1</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A11,"','",B11,"','",C11,"','",D11,"','",E11,"','",F11,"','",G11,"','",H11,"','",I11,"','",J11,"');")</f>
         <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('fr','French','fr','フランス語','French','Francés','法文','法文','프랑스어','1');</v>
       </c>
       <c r="L11" s="3"/>
@@ -2589,31 +2673,31 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J12" s="3">
         <v>1</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A12,"','",B12,"','",C12,"','",D12,"','",E12,"','",F12,"','",G12,"','",H12,"','",I12,"','",J12,"');")</f>
         <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('fr-ca','French (Canada)','fr','フランス語（カナダ）','French (Canada)','Francés (Canadá)','法語（加拿大）','法语（加拿大）','프랑스어 (캐나다)','1');</v>
       </c>
       <c r="L12" s="3"/>
@@ -2629,28 +2713,28 @@
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
         <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J13" s="3">
         <v>1</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A13,"','",B13,"','",C13,"','",D13,"','",E13,"','",F13,"','",G13,"','",H13,"','",I13,"','",J13,"');")</f>
         <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('id','Indonesian','id','インドネシア語','Indonesian','Indonesio','印度尼西亞','印度尼西亚','인도네시아어','1');</v>
       </c>
       <c r="L13" s="3"/>
@@ -2666,28 +2750,28 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J14" s="3">
         <v>1</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A14,"','",B14,"','",C14,"','",D14,"','",E14,"','",F14,"','",G14,"','",H14,"','",I14,"','",J14,"');")</f>
         <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('it','Italian','it','イタリア語','Italian','Italiano','義大利文','义大利文','이태리어','1');</v>
       </c>
       <c r="L14" s="3"/>
@@ -2700,31 +2784,31 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E15" t="s">
         <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J15" s="3">
         <v>1</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A15,"','",B15,"','",C15,"','",D15,"','",E15,"','",F15,"','",G15,"','",H15,"','",I15,"','",J15,"');")</f>
         <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('ja','Japanese','jp','日本語','Japanese','Japonés','日本','日本','일본어','1');</v>
       </c>
       <c r="L15" s="3"/>
@@ -2737,31 +2821,31 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
         <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J16" s="3">
         <v>1</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A16,"','",B16,"','",C16,"','",D16,"','",E16,"','",F16,"','",G16,"','",H16,"','",I16,"','",J16,"');")</f>
         <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('ms','Malay','my','マレー語','Malay','Malayo','馬來語','马来语','말레이어','1');</v>
       </c>
       <c r="L16" s="3"/>
@@ -2777,28 +2861,28 @@
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E17" t="s">
         <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J17" s="3">
         <v>1</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A17,"','",B17,"','",C17,"','",D17,"','",E17,"','",F17,"','",G17,"','",H17,"','",I17,"','",J17,"');")</f>
         <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('nl','Dutch','nl','オランダ語','Dutch','Holandés','荷蘭語','荷兰语','네덜란드','1');</v>
       </c>
       <c r="L17" s="3"/>
@@ -2814,28 +2898,28 @@
         <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
         <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J18" s="3">
         <v>1</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A18,"','",B18,"','",C18,"','",D18,"','",E18,"','",F18,"','",G18,"','",H18,"','",I18,"','",J18,"');")</f>
         <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('pt','Portuguese (Europe)','pt','ポルトガル語（ヨーロッパ）','Portuguese (Europe)','Portugués (Europa)','葡萄牙語（歐洲）','葡萄牙语（欧洲）','포르투갈어 (유럽)','1');</v>
       </c>
       <c r="L18" s="3"/>
@@ -2848,31 +2932,31 @@
         <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E19" t="s">
         <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J19" s="3">
         <v>1</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A19,"','",B19,"','",C19,"','",D19,"','",E19,"','",F19,"','",G19,"','",H19,"','",I19,"','",J19,"');")</f>
         <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('pt-br','Portuguese (Brazil)','pt','ポルトガル語（ブラジル）','Portuguese (Brazil)','Portugués (Brasil)','葡萄牙語（巴西）','葡萄牙语（巴西）','포르투갈어 (브라질)','1');</v>
       </c>
       <c r="L19" s="3"/>
@@ -2888,28 +2972,28 @@
         <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E20" t="s">
         <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J20" s="3">
         <v>1</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A20,"','",B20,"','",C20,"','",D20,"','",E20,"','",F20,"','",G20,"','",H20,"','",I20,"','",J20,"');")</f>
         <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('th','Thai','th','タイ語','Thai','Tailandés','泰國','泰国','타이어','1');</v>
       </c>
       <c r="L20" s="3"/>
@@ -2922,31 +3006,31 @@
         <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s">
         <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A21,"','",B21,"','",C21,"','",D21,"','",E21,"','",F21,"','",G21,"','",H21,"','",I21,"','",J21,"');")</f>
         <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('tl','Tagalog','ph','タガログ語','Tagalog','Tagalo','他加祿語','他加禄语','타갈로그어','1');</v>
       </c>
       <c r="L21" s="3"/>
@@ -2962,28 +3046,28 @@
         <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s">
         <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J22" s="3">
         <v>1</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A22,"','",B22,"','",C22,"','",D22,"','",E22,"','",F22,"','",G22,"','",H22,"','",I22,"','",J22,"');")</f>
         <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('tr','Turkish','tr','トルコ語','Turkish','Turco','土耳其','土耳其','터키어','1');</v>
       </c>
       <c r="L22" s="3"/>
@@ -2996,31 +3080,31 @@
         <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J23" s="3">
         <v>1</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A23,"','",B23,"','",C23,"','",D23,"','",E23,"','",F23,"','",G23,"','",H23,"','",I23,"','",J23,"');")</f>
         <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('zh-hk','Chinese (Hong Kong)','cn','中国語（香港）','Chinese (Hong Kong)','Chino (Hong Kong)','中文（香港）','中文（香港）','중국어 (홍콩)','1');</v>
       </c>
       <c r="L23" s="3"/>
@@ -3033,31 +3117,31 @@
         <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J24" s="3">
         <v>1</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A24,"','",B24,"','",C24,"','",D24,"','",E24,"','",F24,"','",G24,"','",H24,"','",I24,"','",J24,"');")</f>
         <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('zh-tw','Chinese (Traditional)','cn','中国語（繁体字）','Chinese (Traditional)','Chino (tradicional)','繁體中文','繁體中文','중국어 (번체)','1');</v>
       </c>
       <c r="L24" s="3"/>
@@ -3073,28 +3157,28 @@
         <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E25" t="s">
         <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J25" s="3">
         <v>1</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A25,"','",B25,"','",C25,"','",D25,"','",E25,"','",F25,"','",G25,"','",H25,"','",I25,"','",J25,"');")</f>
         <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('ru','Russian','ru','ロシア語','Russian','Ruso','俄語','俄语','러시아어','1');</v>
       </c>
       <c r="L25" s="3"/>
@@ -3107,31 +3191,31 @@
         <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E26" t="s">
         <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J26" s="3">
         <v>1</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A26,"','",B26,"','",C26,"','",D26,"','",E26,"','",F26,"','",G26,"','",H26,"','",I26,"','",J26,"');")</f>
         <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('sv','Swedish','se','スウェーデン語','Swedish','Sueco','瑞典','瑞典','스웨덴어','1');</v>
       </c>
       <c r="L26" s="3"/>
@@ -3147,28 +3231,28 @@
         <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E27" t="s">
         <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J27" s="3">
         <v>1</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A27,"','",B27,"','",C27,"','",D27,"','",E27,"','",F27,"','",G27,"','",H27,"','",I27,"','",J27,"');")</f>
         <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('bg','Bulgarian','bg','ブルガリア語','Bulgarian','Búlgaro','保加利亞語','保加利亚语','불가리아어','1');</v>
       </c>
       <c r="L27" s="3"/>
@@ -3181,31 +3265,31 @@
         <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E28" t="s">
         <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J28" s="3">
         <v>1</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A28,"','",B28,"','",C28,"','",D28,"','",E28,"','",F28,"','",G28,"','",H28,"','",I28,"','",J28,"');")</f>
         <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('cs','Czech','cz','チェコ語','Czech','Checo','捷克文','捷克文','체코 어','1');</v>
       </c>
       <c r="L28" s="3"/>
@@ -3218,31 +3302,31 @@
         <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J29" s="3">
         <v>1</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A29,"','",B29,"','",C29,"','",D29,"','",E29,"','",F29,"','",G29,"','",H29,"','",I29,"','",J29,"');")</f>
         <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('da','Danish','dk','デンマーク語','Danish','Danés','丹麥文','丹麦文','덴마크어','1');</v>
       </c>
       <c r="L29" s="3"/>
@@ -3255,31 +3339,31 @@
         <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E30" t="s">
         <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J30" s="3">
         <v>1</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A30,"','",B30,"','",C30,"','",D30,"','",E30,"','",F30,"','",G30,"','",H30,"','",I30,"','",J30,"');")</f>
         <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('el','Greek','gr','ギリシャ語','Greek','Griego','希臘語','希腊语','그리스어','1');</v>
       </c>
       <c r="L30" s="3"/>
@@ -3292,31 +3376,31 @@
         <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E31" t="s">
         <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J31" s="3">
         <v>1</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A31,"','",B31,"','",C31,"','",D31,"','",E31,"','",F31,"','",G31,"','",H31,"','",I31,"','",J31,"');")</f>
         <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('en-gb','English (British)','en','英語（イギリス）','English (British)','Inglés (británico)','英語（英國）','英语（英国）','영어 (영국)','1');</v>
       </c>
       <c r="L31" s="3"/>
@@ -3332,28 +3416,28 @@
         <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E32" t="s">
         <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J32" s="3">
         <v>1</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A32,"','",B32,"','",C32,"','",D32,"','",E32,"','",F32,"','",G32,"','",H32,"','",I32,"','",J32,"');")</f>
         <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('fi','Finnish','fi','フィンランド語','Finnish','Finlandés','芬蘭','芬兰','핀란드어','1');</v>
       </c>
       <c r="L32" s="3"/>
@@ -3366,31 +3450,31 @@
         <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E33" t="s">
         <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J33" s="3">
         <v>1</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A33,"','",B33,"','",C33,"','",D33,"','",E33,"','",F33,"','",G33,"','",H33,"','",I33,"','",J33,"');")</f>
         <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('he','Hebrew','il','ヘブライ語','Hebrew','Hebreo','希伯來語','希伯来语','히브리어','1');</v>
       </c>
       <c r="L33" s="3"/>
@@ -3406,28 +3490,28 @@
         <v>64</v>
       </c>
       <c r="D34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E34" t="s">
         <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J34" s="3">
         <v>1</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A34,"','",B34,"','",C34,"','",D34,"','",E34,"','",F34,"','",G34,"','",H34,"','",I34,"','",J34,"');")</f>
         <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('hu','Hungarian','hu','ハンガリー語','Hungarian','Húngaro','匈牙利','匈牙利','헝가리어','1');</v>
       </c>
       <c r="L34" s="3"/>
@@ -3443,28 +3527,28 @@
         <v>66</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s">
         <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J35" s="3">
         <v>1</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A35,"','",B35,"','",C35,"','",D35,"','",E35,"','",F35,"','",G35,"','",H35,"','",I35,"','",J35,"');")</f>
         <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('no','Norwegian','no','ノルウェー語','Norwegian','Noruego','挪威','挪威','노르웨이어','1');</v>
       </c>
       <c r="L35" s="3"/>
@@ -3480,28 +3564,28 @@
         <v>68</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E36" t="s">
         <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J36" s="3">
         <v>1</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A36,"','",B36,"','",C36,"','",D36,"','",E36,"','",F36,"','",G36,"','",H36,"','",I36,"','",J36,"');")</f>
         <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('pl','Polish','pl','ポーランド語','Polish','Polaco','拋光','抛光','폴란드어','1');</v>
       </c>
       <c r="L36" s="3"/>
@@ -3517,28 +3601,28 @@
         <v>70</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E37" t="s">
         <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J37" s="3">
         <v>1</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A37,"','",B37,"','",C37,"','",D37,"','",E37,"','",F37,"','",G37,"','",H37,"','",I37,"','",J37,"');")</f>
         <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('ro','Romanian','ro','ルーマニア語','Romanian','Rumano','羅馬尼亞語','罗马尼亚语','루마니아어','1');</v>
       </c>
       <c r="L37" s="3"/>
@@ -3551,71 +3635,201 @@
         <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E38" t="s">
         <v>73</v>
       </c>
       <c r="F38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J38" s="3">
         <v>1</v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A38,"','",B38,"','",C38,"','",D38,"','",E38,"','",F38,"','",G38,"','",H38,"','",I38,"','",J38,"');")</f>
         <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('vi','Vietnamese','vn','ベトナム語','Vietnamese','Vietnamita','越南文','越南文','베트남어','1');</v>
       </c>
       <c r="L38" s="3"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
+        <v>295</v>
+      </c>
+      <c r="B39" t="s">
         <v>74</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>75</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="J39" s="3">
+        <v>1</v>
+      </c>
+      <c r="K39" t="str">
+        <f>CONCATENATE("insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('",A39,"','",B39,"','",C39,"','",D39,"','",E39,"','",F39,"','",G39,"','",H39,"','",I39,"','",J39,"');")</f>
+        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('zh-cn','Chinese (Simplified)','ch','中国語（簡体字）','Chinese (Simplified)','Chino (simplificado)','簡體中文','简体中文','중국어 (간체)','1');</v>
+      </c>
+      <c r="L39" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832D5FFD-5516-4FC9-9CE3-71538476B7F1}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D39" t="s">
-        <v>108</v>
-      </c>
-      <c r="E39" t="s">
-        <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>132</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="H39" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" t="str">
+        <f>CONCATENATE("insert into application_displayLanguage(language,listname,code)Values('",A2,"','",B2,"','",C2,"');")</f>
+        <v>insert into application_displayLanguage(language,listname,code)Values('English','English','en');</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D7" si="0">CONCATENATE("insert into application_displayLanguage(language,listname,code)Values('",A3,"','",B3,"','",C3,"');")</f>
+        <v>insert into application_displayLanguage(language,listname,code)Values('Japanese','日本語','ja');</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into application_displayLanguage(language,listname,code)Values('Spanish','Español','es');</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B5" t="s">
         <v>198</v>
       </c>
-      <c r="I39" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="J39" s="3">
-        <v>1</v>
-      </c>
-      <c r="K39" t="str">
+      <c r="C5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into application_language(lc,language,flagId,japanese,english,spanish,chineseTra,chineseSim,korean,validFlag)Values('zh','Chinese (Simplified)','ch','中国語（簡体字）','Chinese (Simplified)','Chino (simplificado)','簡體中文','简体中文','중국어 (간체)','1');</v>
-      </c>
-      <c r="L39" s="3"/>
+        <v>insert into application_displayLanguage(language,listname,code)Values('ChineseTra','繁體中文','zh-tw');</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into application_displayLanguage(language,listname,code)Values('ChineseSim','简体中文','zh-cn');</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into application_displayLanguage(language,listname,code)Values('Korean','한국','kr');</v>
+      </c>
+      <c r="E7" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/TableData.xlsx
+++ b/TableData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\PycharmProjects\TotalTrans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EEE3E4-5D1E-4CAE-A753-AA0087092029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18B0A2D-4A43-46BD-9511-E8D9D6760685}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F42925FF-B9B5-4678-8952-9C78F3D7E804}"/>
   </bookViews>
@@ -2250,7 +2250,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3713,7 +3713,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
